--- a/Finish_alpha.xlsx
+++ b/Finish_alpha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERN\HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E2C84865-CC14-45DF-8CBC-C6EF5CDEB51F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37080098-DE9D-4297-98B6-28F29E27C68B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Formula</t>
   </si>
@@ -52,22 +52,34 @@
     <t>type</t>
   </si>
   <si>
-    <t>total_asset_t_rate</t>
-  </si>
-  <si>
-    <t>oper_rev/tot_assets</t>
-  </si>
-  <si>
-    <t>{'农林牧渔': 0.06, '建筑材料': 0.08, '机械设备': 0.06, '电子': 0.07, '综合': 0.05, '计算机': 0.05, '通信': 0.14, '钢铁': 0.08, '银行': 0.05, '非银金融': 0.07}</t>
+    <t>ADTM_</t>
+  </si>
+  <si>
+    <t>alpha74</t>
+  </si>
+  <si>
+    <t>If(STM1==SBM1,0,If(STM1&gt;SBM1,(STM1-SBM1)/STM1,(STM1-SBM1)/SBM1))</t>
+  </si>
+  <si>
+    <t>Rank(Correlation(Ts_Sum(((low*0.35)+(vwap*0.65)), {}), Ts_Sum(Ts_Mean(volume,{}), {}), {}))+Rank(Correlation(Rank(vwap), Rank(volume), {}))</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.05, '公用事业': -0.09, '农林牧渔': -0.07, '化工': -0.05, '商业贸易': -0.07, '国防军工': -0.07, '建筑材料': -0.06, '建筑装饰': -0.05, '房地产': -0.08, '机械设备': -0.09, '汽车': -0.05, '电子': -0.06, '纺织服装': -0.09, '轻工制造': -0.05, '通信': -0.05, '钢铁': -0.12, '非银金融': -0.08, '食品饮料': -0.12}</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.07, '休闲服务': -0.06, '公用事业': -0.06, '农林牧渔': -0.1, '化工': -0.07, '医药生物': -0.05, '商业贸易': -0.05, '家用电器': -0.13, '建筑材料': -0.05, '机械设备': -0.05, '汽车': -0.06, '电子': -0.05, '纺织服装': -0.06, '通信': -0.06, '采掘': -0.05, '食品饮料': -0.07}</t>
   </si>
   <si>
     <t>sw1</t>
   </si>
   <si>
-    <t>['oper_rev', 'tot_assets']</t>
-  </si>
-  <si>
-    <t>总资产周转率</t>
+    <t>['open_adj', 'high', 'low']</t>
+  </si>
+  <si>
+    <t>['low', 'volume', 'vwap']</t>
+  </si>
+  <si>
+    <t>ADTM</t>
   </si>
   <si>
     <t>ZZ800</t>
@@ -76,7 +88,13 @@
     <t>[]</t>
   </si>
   <si>
-    <t>质量类</t>
+    <t>[20, 40, 20, 7, 6]</t>
+  </si>
+  <si>
+    <t>波幅类</t>
+  </si>
+  <si>
+    <t>价量类</t>
   </si>
 </sst>
 </file>
@@ -135,13 +153,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,15 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="18.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="18.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -524,41 +550,79 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="265.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="239.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
+    <row r="4" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finish_alpha.xlsx
+++ b/Finish_alpha.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERN\HW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{37080098-DE9D-4297-98B6-28F29E27C68B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,19 +58,19 @@
     <t>Rank(Correlation(Ts_Sum(((low*0.35)+(vwap*0.65)), {}), Ts_Sum(Ts_Mean(volume,{}), {}), {}))+Rank(Correlation(Rank(vwap), Rank(volume), {}))</t>
   </si>
   <si>
-    <t>{'交通运输': -0.05, '公用事业': -0.09, '农林牧渔': -0.07, '化工': -0.05, '商业贸易': -0.07, '国防军工': -0.07, '建筑材料': -0.06, '建筑装饰': -0.05, '房地产': -0.08, '机械设备': -0.09, '汽车': -0.05, '电子': -0.06, '纺织服装': -0.09, '轻工制造': -0.05, '通信': -0.05, '钢铁': -0.12, '非银金融': -0.08, '食品饮料': -0.12}</t>
-  </si>
-  <si>
-    <t>{'交通运输': -0.07, '休闲服务': -0.06, '公用事业': -0.06, '农林牧渔': -0.1, '化工': -0.07, '医药生物': -0.05, '商业贸易': -0.05, '家用电器': -0.13, '建筑材料': -0.05, '机械设备': -0.05, '汽车': -0.06, '电子': -0.05, '纺织服装': -0.06, '通信': -0.06, '采掘': -0.05, '食品饮料': -0.07}</t>
+    <t>{'传媒': -0.06, '公用事业': -0.07, '化工': -0.05, '商业贸易': -0.05, '国防军工': -0.11, '建筑材料': -0.08, '建筑装饰': -0.09, '房地产': -0.08, '机械设备': -0.08, '电子': -0.06, '纺织服装': -0.1, '计算机': -0.06, '轻工制造': -0.1, '通信': -0.07, '钢铁': -0.12, '银行': 0.09, '非银金融': -0.08}</t>
+  </si>
+  <si>
+    <t>{'交通运输': -0.07, '公用事业': -0.06, '农林牧渔': -0.1, '化工': -0.07, '家用电器': -0.13, '建筑材料': -0.05, '建筑装饰': -0.05, '房地产': -0.06, '机械设备': -0.05, '汽车': -0.07, '电子': -0.05, '电气设备': -0.05, '纺织服装': -0.08, '计算机': -0.05, '通信': -0.05, '采掘': -0.06, '食品饮料': -0.07}</t>
   </si>
   <si>
     <t>sw1</t>
   </si>
   <si>
-    <t>['open_adj', 'high', 'low']</t>
-  </si>
-  <si>
-    <t>['low', 'volume', 'vwap']</t>
+    <t>['open_adj', 'high_adj', 'low_adj']</t>
+  </si>
+  <si>
+    <t>['low_adj', 'volume_adj', 'vwap_adj']</t>
   </si>
   <si>
     <t>ADTM</t>
@@ -100,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,39 +147,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,125 +445,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="18.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
-    <col min="4" max="11" width="18.90625" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="265.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-0.04</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="239.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-0.04</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:11" ht="75.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" ht="52" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
